--- a/hero/doc/log/log_201608040135_caiming.xlsx
+++ b/hero/doc/log/log_201608040135_caiming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>日期</t>
   </si>
@@ -33,9 +33,6 @@
     <t>问题与后续计划</t>
   </si>
   <si>
-    <t>2018.5.12</t>
-  </si>
-  <si>
     <t>18:00--20:00</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>解决</t>
   </si>
   <si>
-    <t>2018.5.13</t>
-  </si>
-  <si>
     <t>16:00--18:00</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
   </si>
   <si>
     <t>框架基本了解,javaee导入成功</t>
-  </si>
-  <si>
-    <t>2018.5.14</t>
   </si>
   <si>
     <t xml:space="preserve"> 21:00--22:00</t>
@@ -76,9 +67,6 @@
     <t>待编写</t>
   </si>
   <si>
-    <t>2018.5.15</t>
-  </si>
-  <si>
     <t>编写order，纠正order错误,将实体Order导入数据库</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>Order导入失败.并产生新的问题</t>
   </si>
   <si>
-    <t>2018.5.16</t>
-  </si>
-  <si>
     <t>20:00---22:30</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
     <t>数据库表自动生成</t>
   </si>
   <si>
-    <t>2018.5.17</t>
-  </si>
-  <si>
     <t>18:30--21:00</t>
   </si>
   <si>
@@ -116,6 +98,120 @@
   </si>
   <si>
     <t>整体结构还不是很理解，还需学习加强</t>
+  </si>
+  <si>
+    <t>14:00-15:40</t>
+  </si>
+  <si>
+    <t>修改order类整合错误</t>
+  </si>
+  <si>
+    <t>统一小组配置</t>
+  </si>
+  <si>
+    <t>继续添加信息实体类</t>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+  </si>
+  <si>
+    <t>分离push类实体</t>
+  </si>
+  <si>
+    <t>将push类实体放在push包下</t>
+  </si>
+  <si>
+    <t>继续完善push实体类</t>
+  </si>
+  <si>
+    <t>13:30-18:00</t>
+  </si>
+  <si>
+    <t>添加类方法</t>
+  </si>
+  <si>
+    <t>对push类进行方法测试，添加类方法</t>
+  </si>
+  <si>
+    <t>继续添加类方法</t>
+  </si>
+  <si>
+    <t>18:20-20:30</t>
+  </si>
+  <si>
+    <t>完善Push实体类</t>
+  </si>
+  <si>
+    <t>完善setLucky方法,幸运用户基本完成</t>
+  </si>
+  <si>
+    <t>测试用户类数据访问</t>
+  </si>
+  <si>
+    <t>15:30-18:00</t>
+  </si>
+  <si>
+    <t>改错</t>
+  </si>
+  <si>
+    <t>改正项目错误，分离实体</t>
+  </si>
+  <si>
+    <t>各daotest无法运行</t>
+  </si>
+  <si>
+    <t>20:30-22:30</t>
+  </si>
+  <si>
+    <t>完善实体类</t>
+  </si>
+  <si>
+    <t>添加代码成功插入数据</t>
+  </si>
+  <si>
+    <t>继续完善psuh</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>添加实体类代码</t>
+  </si>
+  <si>
+    <t>添加代码成功</t>
+  </si>
+  <si>
+    <t>继续完善psuh实体类</t>
+  </si>
+  <si>
+    <t>继续完善psuh方法</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>8:30-10:30</t>
+  </si>
+  <si>
+    <t>添加并修改小部分代码</t>
+  </si>
+  <si>
+    <t>对push类进行方法测试，继续添加类方法</t>
+  </si>
+  <si>
+    <t>继续添加测试类方法</t>
+  </si>
+  <si>
+    <t>测试类方法</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>测试类方法，改错</t>
+  </si>
+  <si>
+    <t>修正代码</t>
   </si>
 </sst>
 </file>
@@ -123,12 +219,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,9 +234,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +263,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -167,8 +299,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +345,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -197,34 +361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -234,59 +370,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -297,187 +386,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,11 +580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,8 +598,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,17 +628,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,27 +664,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,164 +682,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1099,13 +1191,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="41.6666666666667" customWidth="1"/>
@@ -1132,109 +1224,365 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3">
+        <v>43232</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A3" s="5">
+        <v>43233</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="58" customHeight="1" spans="1:5">
+      <c r="A4" s="5">
+        <v>43234</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A5" s="5">
+        <v>42505</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="58" customHeight="1" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="5">
+        <v>43236</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="1" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="5">
+        <v>43238</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:5">
+      <c r="A8" s="5">
+        <v>43239</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:5">
+      <c r="A9" s="5">
+        <v>43240</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1"/>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:5">
+      <c r="A10" s="5">
+        <v>43242</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A11" s="5">
+        <v>43243</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:5">
+      <c r="A12" s="5">
+        <v>43244</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:5">
+      <c r="A13" s="5">
+        <v>43246</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:5">
+      <c r="A14" s="5">
+        <v>43247</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:5">
+      <c r="A15" s="5">
+        <v>43250</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:5">
+      <c r="A16" s="5">
+        <v>43251</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:5">
+      <c r="A17" s="5">
+        <v>43252</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:5">
+      <c r="A18" s="5">
+        <v>43253</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:5">
+      <c r="A19" s="5">
+        <v>43255</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:5">
+      <c r="A20" s="5">
+        <v>43256</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:5">
+      <c r="A21" s="5">
+        <v>43259</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:5">
+      <c r="A22" s="5">
+        <v>43261</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/hero/doc/log/log_201608040135_caiming.xlsx
+++ b/hero/doc/log/log_201608040135_caiming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>日期</t>
   </si>
@@ -212,6 +212,114 @@
   </si>
   <si>
     <t>修正代码</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>继续配置</t>
+  </si>
+  <si>
+    <t>未成功</t>
+  </si>
+  <si>
+    <t>编写web</t>
+  </si>
+  <si>
+    <t>安装jira jenkins软件</t>
+  </si>
+  <si>
+    <t>未安装完成</t>
+  </si>
+  <si>
+    <t>继续安装并掌握使用</t>
+  </si>
+  <si>
+    <t>jenkins未安装完成</t>
+  </si>
+  <si>
+    <t>继续研究安装</t>
+  </si>
+  <si>
+    <t>编写立项书安装jenkins</t>
+  </si>
+  <si>
+    <t>jenkins安装完成</t>
+  </si>
+  <si>
+    <t>完成并提交立项书</t>
+  </si>
+  <si>
+    <t>完成立项书</t>
+  </si>
+  <si>
+    <t>立项书完成</t>
+  </si>
+  <si>
+    <t>破解jira</t>
+  </si>
+  <si>
+    <t>jira完成</t>
+  </si>
+  <si>
+    <t>开始写代码</t>
+  </si>
+  <si>
+    <t>2018.6.26</t>
+  </si>
+  <si>
+    <t>13:00--16:00</t>
+  </si>
+  <si>
+    <t>Jenkins错误修改,继续安装</t>
+  </si>
+  <si>
+    <t>安装成功</t>
+  </si>
+  <si>
+    <t>报告文档</t>
+  </si>
+  <si>
+    <t>2018.6.27</t>
+  </si>
+  <si>
+    <t>需求文档编写</t>
+  </si>
+  <si>
+    <t>需求文档修改,文档待编写</t>
+  </si>
+  <si>
+    <t>继续修改,编写文档</t>
+  </si>
+  <si>
+    <t>2018.6.28</t>
+  </si>
+  <si>
+    <t>2018.6.29</t>
+  </si>
+  <si>
+    <t>2018.7.2</t>
+  </si>
+  <si>
+    <t>order模块增添实体属性,文档编写</t>
+  </si>
+  <si>
+    <t>运行成功,文档继续编写</t>
+  </si>
+  <si>
+    <t>继续编写</t>
+  </si>
+  <si>
+    <t>2018.7.3</t>
+  </si>
+  <si>
+    <t>Jenkins使用说明</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>继续学习</t>
   </si>
 </sst>
 </file>
@@ -219,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -240,24 +348,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +387,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,33 +463,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,51 +479,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -386,187 +494,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,16 +688,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -598,17 +706,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,36 +727,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -677,6 +756,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -685,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,137 +805,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,9 +948,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1191,13 +1301,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="29.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="41.6666666666667" customWidth="1"/>
@@ -1580,8 +1690,232 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>43264</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>43270</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>43271</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>43272</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>43273</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>43276</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
